--- a/Gantt Charts/Gantt Chart.xlsx
+++ b/Gantt Charts/Gantt Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/512f0b414f2a6f27/Data Analytics U3/SAT/Gantt Charts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_F25DC773A252ABDACC1048D6A91B4A5E5ADE58E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{42902FCC-A862-435B-86B1-91C25B27A25F}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_F25DC773A252ABDACC1048D6A91B4A5E5ADE58E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{61DB14DB-EB34-4626-AECC-A9A8F2F9196D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>File Name</t>
   </si>
@@ -39,10 +39,16 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>V 0.1</t>
-  </si>
-  <si>
     <t>First Edition, Unit 4 stuff still eh</t>
+  </si>
+  <si>
+    <t>V 1</t>
+  </si>
+  <si>
+    <t>V 2</t>
+  </si>
+  <si>
+    <t>Corrected Start Date</t>
   </si>
 </sst>
 </file>
@@ -374,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F6:I7"/>
+  <dimension ref="F6:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,7 +413,7 @@
     </row>
     <row r="7" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1">
         <v>43966</v>
@@ -416,7 +422,21 @@
         <v>5</v>
       </c>
       <c r="I7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1">
+        <v>43987</v>
+      </c>
+      <c r="H8">
         <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Gantt Charts/Gantt Chart.xlsx
+++ b/Gantt Charts/Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/512f0b414f2a6f27/Data Analytics U3/SAT/Gantt Charts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_F25DC773A252ABDACC1048D6A91B4A5E5ADE58E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{61DB14DB-EB34-4626-AECC-A9A8F2F9196D}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_F25DC773A252ABDACC1048D6A91B4A5E5ADE58E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A1E17F25-72AC-4746-8119-41F9D8B96DCA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>File Name</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>Corrected Start Date</t>
+  </si>
+  <si>
+    <t>V 3</t>
+  </si>
+  <si>
+    <t>Fixed Dates And Added Unit 4</t>
   </si>
 </sst>
 </file>
@@ -380,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F6:I8"/>
+  <dimension ref="F6:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,6 +445,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1">
+        <v>43997</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
